--- a/censuses_I1b/src/test/resources/votersXSSFReaderTest.xlsx
+++ b/censuses_I1b/src/test/resources/votersXSSFReaderTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chama\Documents\GitHub\censuses_i1b\src\test\java\es\uniovi\asw\parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\ASW\practicas\trabajos\entrega final\Voting_I1b\censuses_I1b\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nombre</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>22222J</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -109,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,10 +385,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -426,8 +420,8 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -440,8 +434,8 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
